--- a/data/trans_orig/P57_AF_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>464461</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>439136</v>
+        <v>437306</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>489468</v>
+        <v>488313</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6692410444542445</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6327495027429013</v>
+        <v>0.6301133349212372</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7052731033954719</v>
+        <v>0.7036088959803234</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>466</v>
@@ -765,19 +765,19 @@
         <v>462753</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>438559</v>
+        <v>439285</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>487179</v>
+        <v>486965</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6732359671818724</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6380373244244403</v>
+        <v>0.639093999554369</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7087723470174441</v>
+        <v>0.708460984920402</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>927</v>
@@ -786,19 +786,19 @@
         <v>927214</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>888500</v>
+        <v>888015</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>958736</v>
+        <v>960314</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6712288812180427</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6432033108775072</v>
+        <v>0.6428516205031355</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6940480057758174</v>
+        <v>0.6951904478275117</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>229551</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>204544</v>
+        <v>205699</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>254876</v>
+        <v>256706</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3307589555457556</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2947268966045281</v>
+        <v>0.2963911040196769</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3672504972570988</v>
+        <v>0.3698866650787629</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>229</v>
@@ -836,19 +836,19 @@
         <v>224603</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>200177</v>
+        <v>200391</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>248797</v>
+        <v>248071</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3267640328181276</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.291227652982556</v>
+        <v>0.291539015079598</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3619626755755597</v>
+        <v>0.3609060004456309</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>451</v>
@@ -857,19 +857,19 @@
         <v>454154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>422632</v>
+        <v>421054</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>492868</v>
+        <v>493353</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3287711187819573</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3059519942241826</v>
+        <v>0.3048095521724883</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3567966891224926</v>
+        <v>0.3571483794968646</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>578667</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>546907</v>
+        <v>545596</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>609344</v>
+        <v>608637</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6023291404180772</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5692706621444225</v>
+        <v>0.5679059966851833</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6342607924271858</v>
+        <v>0.6335240084901049</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>558</v>
@@ -982,19 +982,19 @@
         <v>603756</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>572752</v>
+        <v>571007</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>633821</v>
+        <v>634749</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6234617224578012</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5914455091426808</v>
+        <v>0.589643713930594</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6545084153760466</v>
+        <v>0.655466379176931</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1100</v>
@@ -1003,19 +1003,19 @@
         <v>1182423</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1140119</v>
+        <v>1142375</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1227106</v>
+        <v>1223468</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6129374837234938</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5910082085314419</v>
+        <v>0.592177453650055</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6360996616197611</v>
+        <v>0.6342141173384154</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>382049</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>351372</v>
+        <v>352079</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>413809</v>
+        <v>415120</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3976708595819228</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3657392075728141</v>
+        <v>0.3664759915098949</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4307293378555775</v>
+        <v>0.4320940033148165</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>350</v>
@@ -1053,19 +1053,19 @@
         <v>364637</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>334572</v>
+        <v>333644</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>395641</v>
+        <v>397386</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3765382775421988</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3454915846239533</v>
+        <v>0.3445336208230691</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4085544908573191</v>
+        <v>0.4103562860694061</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>703</v>
@@ -1074,19 +1074,19 @@
         <v>746686</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>702003</v>
+        <v>705641</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>788990</v>
+        <v>786734</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3870625162765062</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3639003383802388</v>
+        <v>0.3657858826615845</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.408991791468558</v>
+        <v>0.407822546349945</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>383737</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>358881</v>
+        <v>353755</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>409454</v>
+        <v>408300</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5670231375934703</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5302939477759389</v>
+        <v>0.5227198882119277</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.605022398378284</v>
+        <v>0.6033177979782662</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>408</v>
@@ -1199,19 +1199,19 @@
         <v>397446</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>370959</v>
+        <v>372479</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>424374</v>
+        <v>424726</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5811971501140337</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5424641979972508</v>
+        <v>0.5446862440246317</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6205742109198805</v>
+        <v>0.6210887385751023</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>776</v>
@@ -1220,19 +1220,19 @@
         <v>781184</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>747620</v>
+        <v>745913</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>821527</v>
+        <v>817253</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.574147038637149</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5494788140243879</v>
+        <v>0.5482239449771199</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6037980071111525</v>
+        <v>0.6006567699960041</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>293021</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>267304</v>
+        <v>268458</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317877</v>
+        <v>323003</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4329768624065296</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.394977601621716</v>
+        <v>0.3966822020217338</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4697060522240611</v>
+        <v>0.4772801117880723</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>288</v>
@@ -1270,19 +1270,19 @@
         <v>286395</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>259467</v>
+        <v>259115</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>312882</v>
+        <v>311362</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4188028498859663</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3794257890801195</v>
+        <v>0.3789112614248978</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4575358020027493</v>
+        <v>0.4553137559753683</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>560</v>
@@ -1291,19 +1291,19 @@
         <v>579415</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>539072</v>
+        <v>543346</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>612979</v>
+        <v>614686</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4258529613628511</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3962019928888474</v>
+        <v>0.3993432300039958</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4505211859756119</v>
+        <v>0.4517760550228806</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>559194</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>529537</v>
+        <v>529532</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>588080</v>
+        <v>587128</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5945447021903679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5630127819792768</v>
+        <v>0.563007485944003</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6252566769998676</v>
+        <v>0.6242453359765003</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>577</v>
@@ -1416,19 +1416,19 @@
         <v>604425</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>572448</v>
+        <v>573231</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>637118</v>
+        <v>634202</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.58250387439289</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5516873889770312</v>
+        <v>0.5524411056223043</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6140111645567932</v>
+        <v>0.6112016631878288</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1167</v>
@@ -1437,19 +1437,19 @@
         <v>1163618</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1120255</v>
+        <v>1119635</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1206293</v>
+        <v>1207705</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5882287979546066</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5663077729559262</v>
+        <v>0.5659945037423767</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6098015307461672</v>
+        <v>0.610515536283801</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>381347</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>352461</v>
+        <v>353413</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>411004</v>
+        <v>411009</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4054552978096321</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3747433230001323</v>
+        <v>0.3757546640234998</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.436987218020723</v>
+        <v>0.4369925140559971</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>419</v>
@@ -1487,19 +1487,19 @@
         <v>433207</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>400514</v>
+        <v>403430</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>465184</v>
+        <v>464401</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.41749612560711</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3859888354432068</v>
+        <v>0.3887983368121713</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4483126110229689</v>
+        <v>0.4475588943776956</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>821</v>
@@ -1508,19 +1508,19 @@
         <v>814555</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>771880</v>
+        <v>770468</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>857918</v>
+        <v>858538</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4117712020453934</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3901984692538327</v>
+        <v>0.3894844637161988</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4336922270440738</v>
+        <v>0.4340054962576232</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1986059</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1929173</v>
+        <v>1927939</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2041506</v>
+        <v>2043384</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6069814500043046</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5895959911590974</v>
+        <v>0.5892186302267477</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6239272982458312</v>
+        <v>0.6245011751578173</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2009</v>
@@ -1633,19 +1633,19 @@
         <v>2068380</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2015106</v>
+        <v>2015592</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2128276</v>
+        <v>2128545</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6124500715253164</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5966757586258876</v>
+        <v>0.596819636909563</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.63018528379203</v>
+        <v>0.6302650562343636</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3970</v>
@@ -1654,19 +1654,19 @@
         <v>4054439</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3969270</v>
+        <v>3972379</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4133505</v>
+        <v>4133309</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6097590196875528</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5969502185631814</v>
+        <v>0.5974177738967191</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.621649986495961</v>
+        <v>0.6216204807606376</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1285967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1230520</v>
+        <v>1228642</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1342853</v>
+        <v>1344087</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3930185499956954</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3760727017541687</v>
+        <v>0.3754988248421827</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4104040088409021</v>
+        <v>0.4107813697732522</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1286</v>
@@ -1704,19 +1704,19 @@
         <v>1308842</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1248946</v>
+        <v>1248677</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1362116</v>
+        <v>1361630</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3875499284746836</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3698147162079696</v>
+        <v>0.3697349437656364</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4033242413741124</v>
+        <v>0.4031803630904368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2535</v>
@@ -1725,19 +1725,19 @@
         <v>2594809</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2515743</v>
+        <v>2515939</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2679978</v>
+        <v>2676869</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3902409803124472</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3783500135040389</v>
+        <v>0.3783795192393626</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4030497814368185</v>
+        <v>0.402582226103281</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>399012</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>373878</v>
+        <v>372027</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>425674</v>
+        <v>426975</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5711203056673112</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5351454739455309</v>
+        <v>0.532496226123819</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6092821150775527</v>
+        <v>0.6111451133388147</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>407</v>
@@ -2090,19 +2090,19 @@
         <v>438012</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>410851</v>
+        <v>411968</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>463891</v>
+        <v>463472</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6335594077705465</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5942733559215609</v>
+        <v>0.5958887582037984</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6709916053022009</v>
+        <v>0.6703852647503558</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>788</v>
@@ -2111,19 +2111,19 @@
         <v>837024</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>799113</v>
+        <v>800528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>873886</v>
+        <v>872043</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6021759434579196</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5749021520075766</v>
+        <v>0.5759196326472661</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.628695281919236</v>
+        <v>0.6273693160241479</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>299636</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>272974</v>
+        <v>271673</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>324770</v>
+        <v>326621</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4288796943326889</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3907178849224474</v>
+        <v>0.3888548866611855</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4648545260544691</v>
+        <v>0.4675037738761812</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>239</v>
@@ -2161,19 +2161,19 @@
         <v>253339</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>227460</v>
+        <v>227879</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>280500</v>
+        <v>279383</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3664405922294535</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.329008394697799</v>
+        <v>0.3296147352496442</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4057266440784389</v>
+        <v>0.4041112417962017</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>527</v>
@@ -2182,19 +2182,19 @@
         <v>552975</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>516113</v>
+        <v>517956</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>590886</v>
+        <v>589471</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3978240565420804</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.371304718080764</v>
+        <v>0.372630683975852</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4250978479924234</v>
+        <v>0.4240803673527339</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>628671</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>596528</v>
+        <v>595112</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>660297</v>
+        <v>660319</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6200818252955084</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5883785129391957</v>
+        <v>0.5869817546137556</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6512758164807559</v>
+        <v>0.6512983579913048</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>630</v>
@@ -2307,19 +2307,19 @@
         <v>695050</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>661901</v>
+        <v>663808</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>725169</v>
+        <v>725244</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6775333924517912</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.645220444075038</v>
+        <v>0.6470793779521085</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7068938678941972</v>
+        <v>0.706966484419688</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1204</v>
@@ -2328,19 +2328,19 @@
         <v>1323720</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1277585</v>
+        <v>1277536</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1369215</v>
+        <v>1369822</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6489766328520902</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6263585589719248</v>
+        <v>0.6263345107568563</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6712814775137524</v>
+        <v>0.6715791991536352</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>385180</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>353554</v>
+        <v>353532</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417323</v>
+        <v>418739</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3799181747044917</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3487241835192438</v>
+        <v>0.3487016420086956</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4116214870608043</v>
+        <v>0.4130182453862445</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>304</v>
@@ -2378,19 +2378,19 @@
         <v>330803</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>300684</v>
+        <v>300609</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>363952</v>
+        <v>362045</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3224666075482088</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2931061321058029</v>
+        <v>0.2930335155803123</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3547795559249619</v>
+        <v>0.3529206220478916</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>662</v>
@@ -2399,19 +2399,19 @@
         <v>715983</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>670488</v>
+        <v>669881</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>762118</v>
+        <v>762167</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3510233671479098</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3287185224862473</v>
+        <v>0.328420800846365</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3736414410280746</v>
+        <v>0.3736654892431437</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>446448</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>418788</v>
+        <v>418751</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>474424</v>
+        <v>472364</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5949590278030584</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.558097984396881</v>
+        <v>0.558047838751854</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6322401758173249</v>
+        <v>0.629495314214339</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>437</v>
@@ -2524,19 +2524,19 @@
         <v>480551</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>453884</v>
+        <v>452316</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>508112</v>
+        <v>509890</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6200399666223954</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5856326320683526</v>
+        <v>0.5836096517722725</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6556012667021284</v>
+        <v>0.6578947787944451</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>837</v>
@@ -2545,19 +2545,19 @@
         <v>926999</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>883390</v>
+        <v>886152</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>965280</v>
+        <v>967441</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6077021207698661</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5791144593864473</v>
+        <v>0.5809249857136464</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6327978969181844</v>
+        <v>0.6342147690042094</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>303937</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>275961</v>
+        <v>278021</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>331597</v>
+        <v>331634</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4050409721969415</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3677598241826752</v>
+        <v>0.3705046857856609</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4419020156031191</v>
+        <v>0.4419521612481458</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -2595,19 +2595,19 @@
         <v>294481</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>266920</v>
+        <v>265142</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>321148</v>
+        <v>322716</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3799600333776046</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3443987332978717</v>
+        <v>0.3421052212055548</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4143673679316475</v>
+        <v>0.416390348227728</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>548</v>
@@ -2616,19 +2616,19 @@
         <v>598417</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>560136</v>
+        <v>557975</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>642026</v>
+        <v>639264</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3922978792301339</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3672021030818157</v>
+        <v>0.3657852309957907</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4208855406135527</v>
+        <v>0.419075014286354</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>635356</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>608185</v>
+        <v>606238</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>665315</v>
+        <v>663623</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6738537604293267</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6450368242426203</v>
+        <v>0.6429716055922343</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7056281501038905</v>
+        <v>0.7038333267723428</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>711</v>
@@ -2741,19 +2741,19 @@
         <v>746930</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>716924</v>
+        <v>713691</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>774810</v>
+        <v>772501</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7183715530327033</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6895132162730651</v>
+        <v>0.6864036970102489</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7451855320933106</v>
+        <v>0.7429650311186631</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1319</v>
@@ -2762,19 +2762,19 @@
         <v>1382285</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1335720</v>
+        <v>1341475</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1421849</v>
+        <v>1425818</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6972003834996462</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6737140030994578</v>
+        <v>0.6766165040317274</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7171560518150588</v>
+        <v>0.7191576423153356</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>307513</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>277554</v>
+        <v>279246</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>334684</v>
+        <v>336631</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3261462395706733</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2943718498961095</v>
+        <v>0.2961666732276572</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3549631757573798</v>
+        <v>0.3570283944077657</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>282</v>
@@ -2812,19 +2812,19 @@
         <v>292824</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>264944</v>
+        <v>267253</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>322830</v>
+        <v>326063</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2816284469672967</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2548144679066894</v>
+        <v>0.2570349688813369</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3104867837269349</v>
+        <v>0.3135963029897511</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>579</v>
@@ -2833,19 +2833,19 @@
         <v>600337</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>560773</v>
+        <v>556804</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>646902</v>
+        <v>641147</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3027996165003539</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2828439481849414</v>
+        <v>0.2808423576846648</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3262859969005422</v>
+        <v>0.323383495968273</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>2109487</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2053656</v>
+        <v>2049916</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2165171</v>
+        <v>2170096</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6193892369902723</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6029960460006787</v>
+        <v>0.6018979610086747</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6357393794090347</v>
+        <v>0.6371852831719508</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2185</v>
@@ -2958,19 +2958,19 @@
         <v>2360541</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2305234</v>
+        <v>2304800</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2423483</v>
+        <v>2416648</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6683320465594166</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6526731003065218</v>
+        <v>0.6525502219221899</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6861527292827271</v>
+        <v>0.6842175634522175</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4148</v>
@@ -2979,19 +2979,19 @@
         <v>4470028</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4392499</v>
+        <v>4384673</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4549083</v>
+        <v>4551145</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6443059113127384</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6331310428957156</v>
+        <v>0.6320030170039668</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6557008300055926</v>
+        <v>0.6559980911274189</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1296266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1240582</v>
+        <v>1235657</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1352097</v>
+        <v>1355837</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3806107630097277</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3642606205909653</v>
+        <v>0.3628147168280493</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3970039539993213</v>
+        <v>0.3981020389913253</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1091</v>
@@ -3029,19 +3029,19 @@
         <v>1171447</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1108505</v>
+        <v>1115340</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1226754</v>
+        <v>1227188</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3316679534405834</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3138472707172731</v>
+        <v>0.3157824365477825</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3473268996934783</v>
+        <v>0.3474497780778104</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2316</v>
@@ -3050,19 +3050,19 @@
         <v>2467713</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2388658</v>
+        <v>2386596</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2545242</v>
+        <v>2553068</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3556940886872616</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3442991699944071</v>
+        <v>0.3440019088725811</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3668689571042842</v>
+        <v>0.3679969829960331</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>496415</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>471767</v>
+        <v>472289</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>519751</v>
+        <v>518973</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7378387752198976</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.70120407695693</v>
+        <v>0.7019795158782308</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7725244576972377</v>
+        <v>0.771366870630867</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>515</v>
@@ -3415,19 +3415,19 @@
         <v>520507</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>498676</v>
+        <v>500350</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>542077</v>
+        <v>542297</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7780823051808626</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7454476006219358</v>
+        <v>0.7479499574290887</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8103248509776955</v>
+        <v>0.8106539647417353</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>997</v>
@@ -3436,19 +3436,19 @@
         <v>1016922</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>985664</v>
+        <v>985277</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1048437</v>
+        <v>1046757</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7579030500802967</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.734606443508815</v>
+        <v>0.7343176151263129</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7813906892309072</v>
+        <v>0.7801382505816012</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>176381</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>153045</v>
+        <v>153823</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>201029</v>
+        <v>200507</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2621612247801024</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2274755423027617</v>
+        <v>0.2286331293691329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.29879592304307</v>
+        <v>0.2980204841217691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>147</v>
@@ -3486,19 +3486,19 @@
         <v>148455</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>126885</v>
+        <v>126665</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>170286</v>
+        <v>168612</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2219176948191373</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1896751490223047</v>
+        <v>0.1893460352582656</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2545523993780658</v>
+        <v>0.2520500425709114</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>315</v>
@@ -3507,19 +3507,19 @@
         <v>324836</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>293321</v>
+        <v>295001</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>356094</v>
+        <v>356481</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2420969499197033</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2186093107690928</v>
+        <v>0.2198617494183987</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2653935564911849</v>
+        <v>0.2656823848736871</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>751451</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>719454</v>
+        <v>723844</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>777145</v>
+        <v>782247</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.736482290716667</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7051227147770873</v>
+        <v>0.7094256270394261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7616645126290661</v>
+        <v>0.7666650255542639</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>743</v>
@@ -3632,19 +3632,19 @@
         <v>799954</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>769022</v>
+        <v>772330</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>827254</v>
+        <v>827031</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7708390751278024</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7410327809318183</v>
+        <v>0.7442198195125623</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7971453885419821</v>
+        <v>0.7969299021068531</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1443</v>
@@ -3653,19 +3653,19 @@
         <v>1551406</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1511475</v>
+        <v>1508676</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1590924</v>
+        <v>1588360</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7538063089154146</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7344043524832032</v>
+        <v>0.7330447317904651</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7730077331668205</v>
+        <v>0.7717619754874473</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>268873</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>243179</v>
+        <v>238077</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>300870</v>
+        <v>296480</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.263517709283333</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.238335487370934</v>
+        <v>0.2333349744457363</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2948772852229128</v>
+        <v>0.2905743729605739</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>229</v>
@@ -3703,19 +3703,19 @@
         <v>237817</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>210517</v>
+        <v>210740</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>268749</v>
+        <v>265441</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2291609248721976</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2028546114580179</v>
+        <v>0.2030700978931469</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2589672190681818</v>
+        <v>0.2557801804874378</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>478</v>
@@ -3724,19 +3724,19 @@
         <v>506690</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>467172</v>
+        <v>469736</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>546621</v>
+        <v>549420</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2461936910845855</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2269922668331796</v>
+        <v>0.2282380245125528</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2655956475167969</v>
+        <v>0.2669552682095353</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>609693</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>586065</v>
+        <v>587626</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>631120</v>
+        <v>631574</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8081612060583503</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7768422527758829</v>
+        <v>0.7789109649747354</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8365637467943314</v>
+        <v>0.8371653934733357</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>596</v>
@@ -3849,19 +3849,19 @@
         <v>638221</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>619901</v>
+        <v>617423</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>660279</v>
+        <v>658800</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8205779115282474</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7970238659799052</v>
+        <v>0.7938379389547706</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8489386694869927</v>
+        <v>0.8470369735535301</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1154</v>
@@ -3870,19 +3870,19 @@
         <v>1247914</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1214963</v>
+        <v>1216263</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1275491</v>
+        <v>1276874</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8144641727055703</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7929582972628344</v>
+        <v>0.7938069765612101</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8324627599709349</v>
+        <v>0.8333653439730119</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>144727</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>123300</v>
+        <v>122846</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>168355</v>
+        <v>166794</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1918387939416497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1634362532056685</v>
+        <v>0.1628346065266643</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.223157747224117</v>
+        <v>0.2210890350252645</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -3920,19 +3920,19 @@
         <v>139549</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>117491</v>
+        <v>118970</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>157869</v>
+        <v>160347</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1794220884717526</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1510613305130076</v>
+        <v>0.1529630264464699</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.202976134020095</v>
+        <v>0.2061620610452296</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>267</v>
@@ -3941,19 +3941,19 @@
         <v>284276</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>256699</v>
+        <v>255316</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>317227</v>
+        <v>315927</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1855358272944298</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1675372400290652</v>
+        <v>0.1666346560269881</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2070417027371656</v>
+        <v>0.2061930234387897</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>640896</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>612709</v>
+        <v>612419</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>669604</v>
+        <v>666952</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6880365277014264</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6577760371794025</v>
+        <v>0.6574649838018264</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7188559504809983</v>
+        <v>0.7160096077523905</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>663</v>
@@ -4066,19 +4066,19 @@
         <v>724282</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>690906</v>
+        <v>693419</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>752870</v>
+        <v>755383</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.695490381717962</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6634417422370347</v>
+        <v>0.6658548110096763</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7229423037856028</v>
+        <v>0.7253557993768459</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1302</v>
@@ -4087,19 +4087,19 @@
         <v>1365177</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1322151</v>
+        <v>1323311</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1403754</v>
+        <v>1405704</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6919710887964675</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6701622351226216</v>
+        <v>0.6707504479596624</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7115245333748916</v>
+        <v>0.7125131265815065</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>290589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>261881</v>
+        <v>264533</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>318776</v>
+        <v>319066</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3119634722985736</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2811440495190017</v>
+        <v>0.2839903922476094</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3422239628205974</v>
+        <v>0.3425350161981734</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>294</v>
@@ -4137,19 +4137,19 @@
         <v>317115</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>288527</v>
+        <v>286014</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>350491</v>
+        <v>347978</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.304509618282038</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2770576962143971</v>
+        <v>0.2746442006231541</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3365582577629654</v>
+        <v>0.3341451889903238</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>582</v>
@@ -4158,19 +4158,19 @@
         <v>607705</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>569128</v>
+        <v>567178</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>650731</v>
+        <v>649571</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3080289112035324</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2884754666251081</v>
+        <v>0.2874868734184933</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3298377648773784</v>
+        <v>0.3292495520403375</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>2498453</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2450664</v>
+        <v>2442142</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2553181</v>
+        <v>2551423</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7394009288049429</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7252579731361181</v>
+        <v>0.722735961558566</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7555973161638432</v>
+        <v>0.7550769432122362</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2517</v>
@@ -4283,19 +4283,19 @@
         <v>2682965</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2628031</v>
+        <v>2634274</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2732095</v>
+        <v>2734394</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7609303694764847</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7453501026931323</v>
+        <v>0.7471208737010667</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7748644464845192</v>
+        <v>0.7755165052232785</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4896</v>
@@ -4304,19 +4304,19 @@
         <v>5181419</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5104294</v>
+        <v>5103655</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5255444</v>
+        <v>5261931</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7503946286360461</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7392249884458382</v>
+        <v>0.7391325362013541</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.761115136322835</v>
+        <v>0.7620546231573023</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>880571</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>825843</v>
+        <v>827601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>928360</v>
+        <v>936882</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2605990711950571</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2444026838361568</v>
+        <v>0.2449230567877639</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2747420268638819</v>
+        <v>0.2772640384414341</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>804</v>
@@ -4354,19 +4354,19 @@
         <v>842936</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>793806</v>
+        <v>791507</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>897870</v>
+        <v>891627</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2390696305235153</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2251355535154808</v>
+        <v>0.2244834947767214</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2546498973068676</v>
+        <v>0.2528791262989333</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1642</v>
@@ -4375,19 +4375,19 @@
         <v>1723507</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1649482</v>
+        <v>1642995</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1800632</v>
+        <v>1801271</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2496053713639539</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2388848636771651</v>
+        <v>0.2379453768426977</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2607750115541619</v>
+        <v>0.2608674637986459</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>358976</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>330666</v>
+        <v>328849</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>386897</v>
+        <v>388321</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5254079378494828</v>
+        <v>0.5254079378494829</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.48397212223028</v>
+        <v>0.4813127325524803</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.566274408958768</v>
+        <v>0.5683581315412878</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>740</v>
@@ -4740,19 +4740,19 @@
         <v>405353</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>382888</v>
+        <v>383176</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>429700</v>
+        <v>425859</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5586182824299627</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5276589832794472</v>
+        <v>0.5280565616674003</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5921708871332814</v>
+        <v>0.5868777345120766</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1162</v>
@@ -4761,19 +4761,19 @@
         <v>764329</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>727321</v>
+        <v>725543</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>801341</v>
+        <v>799744</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5425128635089617</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.516245138294017</v>
+        <v>0.514983215049849</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5687835962438651</v>
+        <v>0.5676499096593808</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>324257</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>296336</v>
+        <v>294912</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>352567</v>
+        <v>354384</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4745920621505171</v>
+        <v>0.4745920621505173</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.433725591041232</v>
+        <v>0.4316418684587121</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.51602787776972</v>
+        <v>0.5186872674475198</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>485</v>
@@ -4811,19 +4811,19 @@
         <v>320282</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295935</v>
+        <v>299776</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>342747</v>
+        <v>342459</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4413817175700374</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4078291128667186</v>
+        <v>0.4131222654879232</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4723410167205528</v>
+        <v>0.4719434383325996</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>786</v>
@@ -4832,19 +4832,19 @@
         <v>644539</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>607527</v>
+        <v>609124</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>681547</v>
+        <v>683325</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4574871364910383</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4312164037561351</v>
+        <v>0.4323500903406193</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.483754861705983</v>
+        <v>0.4850167849501523</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>603514</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>567079</v>
+        <v>567495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>639634</v>
+        <v>640810</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5803012712917108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5452668796581639</v>
+        <v>0.5456670907125237</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6150314878175323</v>
+        <v>0.6161619763665831</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>982</v>
@@ -4957,19 +4957,19 @@
         <v>662152</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>632015</v>
+        <v>632747</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>688453</v>
+        <v>691970</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6242832349137047</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.595870011619038</v>
+        <v>0.5965599013186204</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6490802481696528</v>
+        <v>0.6523967268389179</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1569</v>
@@ -4978,19 +4978,19 @@
         <v>1265666</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1219805</v>
+        <v>1218310</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1316833</v>
+        <v>1311995</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6025085067273636</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5806766337204277</v>
+        <v>0.5799650247123809</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6268661222235095</v>
+        <v>0.6245627173951747</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>436488</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>400368</v>
+        <v>399192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>472923</v>
+        <v>472507</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.419698728708289</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3849685121824677</v>
+        <v>0.3838380236334167</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4547331203418361</v>
+        <v>0.4543329092874762</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>517</v>
@@ -5028,19 +5028,19 @@
         <v>398507</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>372206</v>
+        <v>368689</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>428644</v>
+        <v>427912</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3757167650862953</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3509197518303471</v>
+        <v>0.3476032731610826</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4041299883809618</v>
+        <v>0.4034400986813797</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>885</v>
@@ -5049,19 +5049,19 @@
         <v>834995</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>783828</v>
+        <v>788666</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>880856</v>
+        <v>882351</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3974914932726366</v>
+        <v>0.3974914932726365</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3731338777764905</v>
+        <v>0.3754372826048254</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4193233662795723</v>
+        <v>0.420034975287619</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>484647</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>453219</v>
+        <v>449998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>517696</v>
+        <v>515408</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6054108240309343</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5661514952446862</v>
+        <v>0.5621274434161998</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6466952677801716</v>
+        <v>0.6438369848948642</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>611</v>
@@ -5174,19 +5174,19 @@
         <v>469614</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>442656</v>
+        <v>441504</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>496673</v>
+        <v>495574</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5811260812252332</v>
+        <v>0.5811260812252333</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5477663185891316</v>
+        <v>0.5463406392666059</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6146103211674983</v>
+        <v>0.6132499698159558</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1031</v>
@@ -5195,19 +5195,19 @@
         <v>954261</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>908363</v>
+        <v>910719</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>992046</v>
+        <v>995218</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5932112027442372</v>
+        <v>0.5932112027442373</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.564678866792674</v>
+        <v>0.5661434187550088</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6166994511025848</v>
+        <v>0.6186714165648304</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>315879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>282830</v>
+        <v>285118</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>347307</v>
+        <v>350528</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3945891759690657</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3533047322198286</v>
+        <v>0.3561630151051358</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4338485047553141</v>
+        <v>0.4378725565838003</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>429</v>
@@ -5245,19 +5245,19 @@
         <v>338497</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>311438</v>
+        <v>312537</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>365455</v>
+        <v>366607</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4188739187747667</v>
+        <v>0.4188739187747668</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3853896788325015</v>
+        <v>0.386750030184044</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4522336814108681</v>
+        <v>0.4536593607333937</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>683</v>
@@ -5266,19 +5266,19 @@
         <v>654376</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>616591</v>
+        <v>613419</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>700274</v>
+        <v>697918</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4067887972557626</v>
+        <v>0.4067887972557627</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3833005488974153</v>
+        <v>0.3813285834351692</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4353211332073261</v>
+        <v>0.4338565812449911</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>549898</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>515410</v>
+        <v>514952</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>583027</v>
+        <v>582486</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5611876049640652</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5259913453447475</v>
+        <v>0.5255244124965579</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5949966149647278</v>
+        <v>0.594444144759663</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>880</v>
@@ -5391,19 +5391,19 @@
         <v>615044</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>585031</v>
+        <v>586342</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>643886</v>
+        <v>645631</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5570262761780856</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5298444889660393</v>
+        <v>0.5310321432221965</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5831479804169973</v>
+        <v>0.5847283144180392</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1473</v>
@@ -5412,19 +5412,19 @@
         <v>1164942</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1116953</v>
+        <v>1119482</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1209623</v>
+        <v>1208489</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5589828687673353</v>
+        <v>0.5589828687673354</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5359561692692744</v>
+        <v>0.5371697442220909</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5804225337421833</v>
+        <v>0.57987834892475</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>429985</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>396856</v>
+        <v>397397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>464473</v>
+        <v>464931</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4388123950359348</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4050033850352724</v>
+        <v>0.4055558552403371</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4740086546552525</v>
+        <v>0.4744755875034422</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>661</v>
@@ -5462,19 +5462,19 @@
         <v>489112</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>460270</v>
+        <v>458525</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>519125</v>
+        <v>517814</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4429737238219144</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4168520195830026</v>
+        <v>0.4152716855819611</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4701555110339608</v>
+        <v>0.4689678567778036</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1062</v>
@@ -5483,19 +5483,19 @@
         <v>919096</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>874415</v>
+        <v>875549</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>967085</v>
+        <v>964556</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4410171312326647</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4195774662578168</v>
+        <v>0.42012165107525</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4640438307307256</v>
+        <v>0.4628302557779093</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1997035</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1930290</v>
+        <v>1921374</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2057387</v>
+        <v>2057390</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5699882276435326</v>
+        <v>0.5699882276435325</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5509378898548398</v>
+        <v>0.5483933131303629</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.587213656398439</v>
+        <v>0.5872145850178613</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3213</v>
@@ -5608,19 +5608,19 @@
         <v>2152162</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2097022</v>
+        <v>2101569</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2205035</v>
+        <v>2206556</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.581891963180407</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5669832489508545</v>
+        <v>0.5682126630211883</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5961874028443134</v>
+        <v>0.5965986044490023</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5235</v>
@@ -5629,19 +5629,19 @@
         <v>4149198</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4064920</v>
+        <v>4066238</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4243235</v>
+        <v>4231942</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.57610117350936</v>
+        <v>0.5761011735093599</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5643995916345295</v>
+        <v>0.5645825786395119</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5891579818358557</v>
+        <v>0.5875899590350148</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1506608</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1446256</v>
+        <v>1446253</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1573353</v>
+        <v>1582269</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4300117723564674</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4127863436015611</v>
+        <v>0.4127854149821387</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4490621101451602</v>
+        <v>0.4516066868696372</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2092</v>
@@ -5679,19 +5679,19 @@
         <v>1546398</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1493525</v>
+        <v>1492004</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1601538</v>
+        <v>1596991</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4181080368195929</v>
+        <v>0.4181080368195928</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4038125971556865</v>
+        <v>0.4034013955509979</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4330167510491454</v>
+        <v>0.4317873369788116</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3416</v>
@@ -5700,19 +5700,19 @@
         <v>3053005</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2958968</v>
+        <v>2970261</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3137283</v>
+        <v>3135965</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.42389882649064</v>
+        <v>0.4238988264906401</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4108420181641442</v>
+        <v>0.4124100409649852</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4356004083654705</v>
+        <v>0.4354174213604881</v>
       </c>
     </row>
     <row r="18">
